--- a/Daten/Schulferien/Ferien83_84.xlsx
+++ b/Daten/Schulferien/Ferien83_84.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2D2BFA1A043AAEDFD826CAA4098541D55A0F0794" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{284A5F4E-2955-4AEA-AA38-790D6C2E080E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,63 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
-  <si>
-    <t xml:space="preserve">Sekretariat der Ständigen Konferenz 
-der Kultusminister der Länder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERIEN IM SCHULJAHR 1983/84</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">in der Bundesrepublik Deutschland 
-Lennéstr. 6, 53113 Bonn </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> in den Ländern in der</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Tel: 0228/501-660 Fax: 0228/501-777 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bundesrepublik Deutschland </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">Land </t>
   </si>
@@ -97,10 +42,6 @@
 1983/84 </t>
   </si>
   <si>
-    <t xml:space="preserve">Winter 
-1984 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ostern/Frühjahr 
 1984 </t>
   </si>
@@ -121,175 +62,148 @@
     <t xml:space="preserve">27.12. – 10.01. </t>
   </si>
   <si>
+    <t xml:space="preserve">16.04.– 30.04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.06. – 15.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.07. – 12.09. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.10. – 02.11. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12. – 09.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.04. – 30.04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.06. – 23.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.06. – 30.07. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.10. – 08.10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12. – 07.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.04. – 30.04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.06. – 12.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.06. – 30.07. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.10. – 15.10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12. – 07.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.04. – 24.04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.06. – 06.08. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.10. – 15.10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.12. – 02.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.03. – 31.03. </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">16.04.– 30.04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.06. – 15.06. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayern </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.07. – 12.09. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.10. – 02.11. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 09.01. </t>
+    <t xml:space="preserve">Hessen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.06. – 03.08. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.10. – 13.10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12. – 06.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.04. – 04.05. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedersachsen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.06. – 30.07. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.09. – 08.10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12. – 07.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.04. – 30.04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.06. – 12.06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordrhein-Westfalen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07. – 20.08. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10. – 15.10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12. – 07.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.04. – 28.04. </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">16.04. – 30.04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.06. – 23.06. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.06. – 30.07. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.10. – 08.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 07.01. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">07.04. – 30.04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.06. – 12.06. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.06. – 30.07. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.10. – 15.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 07.01. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">04.04. – 24.04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.06. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamburg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.06. – 06.08. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.10. – 15.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.12. – 02.01. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">12.03. – 31.03. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.06. – 03.08. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.10. – 13.10. </t>
+    <t xml:space="preserve">Rheinland-Pfalz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.07. – 24.08. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.10. – 04.11. </t>
   </si>
   <si>
     <t xml:space="preserve">23.12. – 06.01. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">16.04. – 04.05. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.06. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niedersachsen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.06. – 30.07. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.09. – 08.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 07.01. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">11.04. – 30.04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.06. – 12.06. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07. – 20.08. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.10. – 15.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 07.01. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">07.04. – 28.04. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheinland-Pfalz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.07. – 24.08. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.10. – 04.11. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 06.01. </t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">09.04. – 28.04. </t>
@@ -313,94 +227,51 @@
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
       </rPr>
-      <t xml:space="preserve">24.12. – 07.01.</t>
+      <t>24.12. – 07.01.</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <vertAlign val="superscript"/>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">09.04. – 30.04. </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">09.04. – 30.04. </t>
+    <t xml:space="preserve">Schleswig-Holstein </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.06. – 03.08. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.10. – 15.10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12. – 07.01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.04. – 30.04. </t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Schleswig-Holstein </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.06. – 03.08. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.10. – 15.10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 07.01. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">16.04. – 30.04. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Narrow"/>
-        <vertAlign val="superscript"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">Fastnacht 14.02. – 15.02. </t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
@@ -414,6 +285,17 @@
       <sz val="9"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Arial Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -569,64 +451,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -903,369 +770,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36"/>
     <col min="2" max="2" width="15"/>
     <col min="3" max="3" width="16"/>
     <col min="4" max="4" width="15"/>
-    <col min="5" max="5" width="12"/>
-    <col min="6" max="6" width="16"/>
-    <col min="7" max="7" width="19"/>
+    <col min="5" max="5" width="16"/>
+    <col min="6" max="6" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="28" customHeight="1">
+    <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="27" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="18" customHeight="1">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="32" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="F10" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="11" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="23" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="19" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="14" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>102</v>
-      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A16:G16"/>
+  <mergeCells count="1">
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
